--- a/data/trans_orig/P33B_R1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>137830</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>120025</v>
+        <v>120087</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>160227</v>
+        <v>156959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2382419598900553</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2074652018951384</v>
+        <v>0.2075724423440157</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2769560664275944</v>
+        <v>0.271307364596306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>537</v>
@@ -762,19 +762,19 @@
         <v>309217</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>288525</v>
+        <v>286804</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>330725</v>
+        <v>328764</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3764896767759456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3512960400213854</v>
+        <v>0.3492008125062988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4026778333272599</v>
+        <v>0.4002898761154209</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>715</v>
@@ -783,19 +783,19 @@
         <v>447047</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>418085</v>
+        <v>417288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>481696</v>
+        <v>475106</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3193544966311909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2986653068539749</v>
+        <v>0.2980956389296832</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3441064339943137</v>
+        <v>0.3393990690709099</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>440699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418302</v>
+        <v>421570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458504</v>
+        <v>458442</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7617580401099449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7230439335724057</v>
+        <v>0.728692635403694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7925347981048615</v>
+        <v>0.7924275576559843</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>889</v>
@@ -833,19 +833,19 @@
         <v>512098</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>490590</v>
+        <v>492551</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>532790</v>
+        <v>534511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6235103232240544</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5973221666727401</v>
+        <v>0.5997101238845791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6487039599786146</v>
+        <v>0.6507991874937012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1402</v>
@@ -854,19 +854,19 @@
         <v>952798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>918149</v>
+        <v>924739</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>981760</v>
+        <v>982557</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6806455033688091</v>
+        <v>0.680645503368809</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6558935660056863</v>
+        <v>0.6606009309290901</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.701334693146025</v>
+        <v>0.7019043610703168</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>238586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208927</v>
+        <v>211390</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272076</v>
+        <v>270895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1070141046899216</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09371091102814937</v>
+        <v>0.09481548137405928</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1220352527191619</v>
+        <v>0.1215058622411426</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>557</v>
@@ -979,19 +979,19 @@
         <v>382777</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>352804</v>
+        <v>349414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>414427</v>
+        <v>415821</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1763281585101724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1625205623648797</v>
+        <v>0.1609590474062351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1909075542644385</v>
+        <v>0.1915499141375083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>808</v>
@@ -1000,19 +1000,19 @@
         <v>621364</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>577110</v>
+        <v>580104</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>667908</v>
+        <v>666516</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1412091146742397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1311522834410252</v>
+        <v>0.1318325111954915</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1517866224110435</v>
+        <v>0.1514703406506148</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1990899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1957409</v>
+        <v>1958590</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2020558</v>
+        <v>2018095</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8929858953100784</v>
+        <v>0.8929858953100783</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8779647472808378</v>
+        <v>0.8784941377588577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9062890889718505</v>
+        <v>0.9051845186259408</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2363</v>
@@ -1050,19 +1050,19 @@
         <v>1788047</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1756397</v>
+        <v>1755003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1818020</v>
+        <v>1821410</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8236718414898277</v>
+        <v>0.8236718414898275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8090924457355615</v>
+        <v>0.8084500858624916</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8374794376351203</v>
+        <v>0.8390409525937649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4103</v>
@@ -1071,19 +1071,19 @@
         <v>3778944</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3732400</v>
+        <v>3733792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3823198</v>
+        <v>3820204</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8587908853257602</v>
+        <v>0.8587908853257604</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8482133775889561</v>
+        <v>0.8485296593493854</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8688477165589737</v>
+        <v>0.8681674888045083</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>72931</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57570</v>
+        <v>57827</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91227</v>
+        <v>91547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1024904485470165</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08090309841478942</v>
+        <v>0.08126421776931976</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1282026179814496</v>
+        <v>0.1286521955696331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1196,19 +1196,19 @@
         <v>101330</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86201</v>
+        <v>82761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117968</v>
+        <v>119140</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1378869299005204</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1172995143472514</v>
+        <v>0.112618810076252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1605277941490831</v>
+        <v>0.1621227641587427</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -1217,19 +1217,19 @@
         <v>174261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152313</v>
+        <v>149464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>199540</v>
+        <v>199615</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1204736575033098</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1053000983989041</v>
+        <v>0.103330779567831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1379498937256575</v>
+        <v>0.138002041195787</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>638656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>620360</v>
+        <v>620040</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654017</v>
+        <v>653760</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8975095514529835</v>
+        <v>0.8975095514529833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8717973820185505</v>
+        <v>0.8713478044303669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9190969015852106</v>
+        <v>0.9187357822306805</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>859</v>
@@ -1267,19 +1267,19 @@
         <v>633547</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616909</v>
+        <v>615737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648676</v>
+        <v>652116</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8621130700994795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8394722058509169</v>
+        <v>0.8378772358412574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8827004856527486</v>
+        <v>0.887381189923748</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1471</v>
@@ -1288,19 +1288,19 @@
         <v>1272203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1246924</v>
+        <v>1246849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1294151</v>
+        <v>1297000</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8795263424966901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8620501062743424</v>
+        <v>0.861997958804213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8946999016010958</v>
+        <v>0.8966692204321691</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>449347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>411065</v>
+        <v>408174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>492202</v>
+        <v>490451</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1276699119016492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1167930051116539</v>
+        <v>0.1159716641907587</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1398459751510845</v>
+        <v>0.1393484185980807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1239</v>
@@ -1413,19 +1413,19 @@
         <v>793324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>754069</v>
+        <v>746976</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>836197</v>
+        <v>836306</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.212857677596818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2023250780264527</v>
+        <v>0.2004219601263682</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2243610955156026</v>
+        <v>0.2243902717486498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1737</v>
@@ -1434,19 +1434,19 @@
         <v>1242671</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1186906</v>
+        <v>1185719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1305582</v>
+        <v>1305051</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1714829302574993</v>
+        <v>0.1714829302574994</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1637875610948214</v>
+        <v>0.1636238599901354</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1801643965366977</v>
+        <v>0.1800911219256544</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3070254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3027399</v>
+        <v>3029150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3108536</v>
+        <v>3111427</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8723300880983507</v>
+        <v>0.8723300880983508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.860154024848915</v>
+        <v>0.8606515814019194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8832069948883458</v>
+        <v>0.8840283358092413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4111</v>
@@ -1484,19 +1484,19 @@
         <v>2933692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2890819</v>
+        <v>2890710</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2972947</v>
+        <v>2980040</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.787142322403182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7756389044843973</v>
+        <v>0.7756097282513504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7976749219735471</v>
+        <v>0.7995780398736317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6976</v>
@@ -1505,19 +1505,19 @@
         <v>6003946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5941035</v>
+        <v>5941566</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6059711</v>
+        <v>6060898</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8285170697425006</v>
+        <v>0.8285170697425007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8198356034633023</v>
+        <v>0.8199088780743455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8362124389051785</v>
+        <v>0.8363761400098645</v>
       </c>
     </row>
     <row r="15">
